--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H2">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>17.25651632913422</v>
+        <v>0.3742354405776667</v>
       </c>
       <c r="R2">
-        <v>155.308646962208</v>
+        <v>3.368118965199</v>
       </c>
       <c r="S2">
-        <v>0.03662468090212477</v>
+        <v>0.0009941184238241203</v>
       </c>
       <c r="T2">
-        <v>0.03662468090212477</v>
+        <v>0.0009941184238241205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H3">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
-        <v>57.01620134538377</v>
+        <v>1.256295387978556</v>
       </c>
       <c r="R3">
-        <v>513.1458121084539</v>
+        <v>11.306658491807</v>
       </c>
       <c r="S3">
-        <v>0.1210093706457116</v>
+        <v>0.003337221052679971</v>
       </c>
       <c r="T3">
-        <v>0.1210093706457116</v>
+        <v>0.003337221052679972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H4">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
-        <v>21.48687674720577</v>
+        <v>0.4734419958295555</v>
       </c>
       <c r="R4">
-        <v>193.381890724852</v>
+        <v>4.260977962466</v>
       </c>
       <c r="S4">
-        <v>0.04560306318147692</v>
+        <v>0.001257650558000922</v>
       </c>
       <c r="T4">
-        <v>0.04560306318147692</v>
+        <v>0.001257650558000923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.325482</v>
       </c>
       <c r="I5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N5">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q5">
-        <v>47.465552250336</v>
+        <v>46.717203592026</v>
       </c>
       <c r="R5">
-        <v>427.189970253024</v>
+        <v>420.454832328234</v>
       </c>
       <c r="S5">
-        <v>0.100739377047772</v>
+        <v>0.124099504655912</v>
       </c>
       <c r="T5">
-        <v>0.100739377047772</v>
+        <v>0.124099504655912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.325482</v>
       </c>
       <c r="I6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q6">
         <v>156.828031362618</v>
@@ -818,10 +818,10 @@
         <v>1411.452282263562</v>
       </c>
       <c r="S6">
-        <v>0.3328468212015114</v>
+        <v>0.4165977308535796</v>
       </c>
       <c r="T6">
-        <v>0.3328468212015114</v>
+        <v>0.4165977308535796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.325482</v>
       </c>
       <c r="I7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q7">
         <v>59.101527300684</v>
@@ -880,10 +880,10 @@
         <v>531.913745706156</v>
       </c>
       <c r="S7">
-        <v>0.1254352000676585</v>
+        <v>0.1569972022827719</v>
       </c>
       <c r="T7">
-        <v>0.1254352000676585</v>
+        <v>0.1569972022827719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.896868</v>
       </c>
       <c r="I8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N8">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q8">
-        <v>20.18622364913067</v>
+        <v>19.867964771524</v>
       </c>
       <c r="R8">
-        <v>181.676012842176</v>
+        <v>178.811682943716</v>
       </c>
       <c r="S8">
-        <v>0.04284259845193376</v>
+        <v>0.05277722973744267</v>
       </c>
       <c r="T8">
-        <v>0.04284259845193376</v>
+        <v>0.05277722973744269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.896868</v>
       </c>
       <c r="I9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N9">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q9">
-        <v>66.69606831586533</v>
+        <v>66.69606831586535</v>
       </c>
       <c r="R9">
-        <v>600.264614842788</v>
+        <v>600.2646148427881</v>
       </c>
       <c r="S9">
-        <v>0.1415536121488685</v>
+        <v>0.1771713288487267</v>
       </c>
       <c r="T9">
-        <v>0.1415536121488685</v>
+        <v>0.1771713288487267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.896868</v>
       </c>
       <c r="I10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>17.540158</v>
       </c>
       <c r="O10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q10">
         <v>25.13478915834934</v>
@@ -1066,10 +1066,10 @@
         <v>226.213102425144</v>
       </c>
       <c r="S10">
-        <v>0.05334527635294248</v>
+        <v>0.06676801358706212</v>
       </c>
       <c r="T10">
-        <v>0.05334527635294248</v>
+        <v>0.06676801358706214</v>
       </c>
     </row>
   </sheetData>
